--- a/data/long_dif/P23_3-Estudios-long_dif.xlsx
+++ b/data/long_dif/P23_3-Estudios-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,03%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>31,69%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>22,86%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26,22%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>27,62%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19,59%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,71; 34,21</t>
+          <t>14,78; 34,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,66; 45,95</t>
+          <t>23,48; 48,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,14; 31,34</t>
+          <t>8,37; 23,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,18; 29,59</t>
+          <t>20,97; 36,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,99; 30,09</t>
+          <t>19,37; 30,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,21; 34,06</t>
+          <t>15,98; 31,75</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20,78; 33,58</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>23,17; 35,23</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>14,2; 25,17</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>37,84%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>37,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>42,43%</t>
+          <t>58,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>48,91%</t>
+          <t>39,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>42,83%</t>
+          <t>51,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>45,21%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>38,52%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>45,31%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>51,27%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,15; 57,47</t>
+          <t>25,26; 50,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,45; 46,44</t>
+          <t>28,44; 46,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>35,24; 53,38</t>
+          <t>46,2; 74,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>40,93; 55,9</t>
+          <t>30,44; 48,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,72; 51,43</t>
+          <t>45,4; 58,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,65; 49,65</t>
+          <t>36,77; 55,21</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>31,13; 45,95</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39,65; 50,35</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>44,2; 62,6</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>37,71%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>30,6%</t>
+          <t>30,56%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,1%</t>
+          <t>25,8%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,52%</t>
+          <t>33,37%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
+          <t>31,93%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>35,26%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>27,07%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>29,14%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,73; 46,37</t>
+          <t>25,37; 59,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,84; 39,32</t>
+          <t>22,14; 37,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,14; 39,96</t>
+          <t>14,98; 37,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,0; 37,71</t>
+          <t>25,94; 41,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,99; 39,72</t>
+          <t>18,96; 29,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,89; 34,88</t>
+          <t>24,37; 40,04</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28,66; 46,12</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>22,33; 31,23</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>21,89; 36,77</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,55; 40,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,74; 28,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,42; 34,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,58; 33,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,97; 35,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,85; 29,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>38,09%</t>
+          <t>34,16%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>48,53%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>40,57%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>44,12%</t>
+          <t>28,73%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>39,32%</t>
+          <t>29,31%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>46,35%</t>
+          <t>28,17%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>31,4%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26,74%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29,7%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>32,46; 44,5</t>
+          <t>28,15; 40,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,17; 54,32</t>
+          <t>20,28; 29,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,76; 45,25</t>
+          <t>24,46; 36,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39,73; 48,64</t>
+          <t>23,69; 33,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>36,01; 43,66</t>
+          <t>25,42; 33,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>42,56; 49,82</t>
+          <t>23,3; 33,36</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>27,64; 35,56</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23,89; 29,82</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>26,28; 34,31</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>26,79%</t>
+          <t>40,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>48,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>36,64%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26,38%</t>
+          <t>40,87%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>44,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>40,85%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>40,67%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>46,37%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>38,71%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,23; 32,42</t>
+          <t>33,58; 48,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,8; 32,97</t>
+          <t>43,14; 53,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,67; 34,27</t>
+          <t>30,42; 43,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,35; 30,35</t>
+          <t>35,46; 46,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,23; 31,85</t>
+          <t>39,86; 49,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,7; 30,44</t>
+          <t>35,63; 46,13</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>36,6; 45,57</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>43,04; 49,84</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>34,2; 42,98</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>33,51%</t>
+          <t>25,37%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>31,11%</t>
+          <t>27,22%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>31,92%</t>
+          <t>32,18%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,41%</t>
+          <t>30,98%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>27,93%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>26,89%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>31,59%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>28,01; 41,48</t>
+          <t>20,04; 31,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>26,04; 37,06</t>
+          <t>22,67; 32,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,84; 36,91</t>
+          <t>25,66; 39,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,61; 34,62</t>
+          <t>25,71; 35,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,38; 36,72</t>
+          <t>22,24; 30,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,76; 33,69</t>
+          <t>26,18; 35,96</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>24,65; 32,02</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>24,06; 30,55</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>27,46; 36,43</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>43,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>41,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>39,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>43,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>41,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>42,42%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>36,51; 49,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>35,32; 46,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>34,55; 45,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>38,82; 48,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>37,41; 45,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>38,78; 45,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>23,14%</t>
+          <t>31,73%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
+          <t>29,18%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>26,9%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>29,61%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>27,43%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>32,33%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>30,38%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>28,28%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,55; 28,44</t>
+          <t>25,72; 38,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>22,86; 32,96</t>
+          <t>25,82; 37,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>23,95; 34,49</t>
+          <t>23,64; 36,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>23,12; 31,41</t>
+          <t>28,37; 38,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,57; 29,78</t>
+          <t>25,46; 33,89</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,21; 30,73</t>
+          <t>22,96; 32,81</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>28,48; 36,66</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>27,12; 33,82</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>24,32; 32,48</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>45,03%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>41,6%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>40,8%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>28,2%</t>
+          <t>37,31%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>31,0%</t>
+          <t>43,46%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>39,66%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>41,0%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>42,55%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>40,21%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>29,35; 36,95</t>
+          <t>38,18; 52,11</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>24,37; 31,75</t>
+          <t>35,94; 47,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>26,33; 32,28</t>
+          <t>34,21; 48,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>25,56; 31,04</t>
+          <t>32,17; 43,3</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>28,67; 33,57</t>
+          <t>38,63; 48,19</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>25,81; 30,12</t>
+          <t>34,73; 45,24</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>36,51; 45,39</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>39,12; 46,15</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>36,16; 45,06</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>40,77%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>44,22%</t>
+          <t>27,21%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>40,56%</t>
+          <t>30,02%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>44,99%</t>
+          <t>29,81%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>40,66%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>44,62%</t>
+          <t>32,91%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>26,67%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>27,07%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>31,51%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>36,49; 45,16</t>
+          <t>18,17; 29,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>40,19; 47,71</t>
+          <t>22,21; 31,7</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>37,16; 44,08</t>
+          <t>24,06; 35,83</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>41,9; 47,95</t>
+          <t>24,77; 35,82</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>37,95; 43,66</t>
+          <t>23,09; 31,02</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>42,14; 46,93</t>
+          <t>27,33; 38,07</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>22,89; 30,55</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>23,8; 30,34</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>27,53; 35,58</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>28,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>30,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>26,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>28,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +1859,924 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>22,97; 30,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>24,8; 31,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>27,08; 33,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>23,92; 29,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>25,97; 30,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>25,35; 29,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>37,44%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>27,43%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>32,7%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>28,6; 46,77</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>20,64; 35,27</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>27,14; 38,78</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>37,47%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>43,37%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>40,26%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>28,31; 48,19</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>35,95; 51,73</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>34,68; 46,75</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>25,09%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>29,21%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>27,04%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>18,37; 33,29</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>22,58; 36,56</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>22,29; 32,39</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>32,98%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>27,89%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>27,63%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>29,55%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>28,32%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>26,78%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>31,22%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>28,11%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>27,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>29,27; 36,77</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>24,74; 32,25</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>23,89; 31,77</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>26,68; 32,5</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>25,86; 31,14</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>23,92; 30,16</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>28,88; 33,52</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>26,1; 30,6</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>24,75; 29,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>40,83%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>44,27%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>42,12%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>39,99%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>45,49%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>41,35%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>40,4%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>44,9%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>41,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>37,01; 45,45</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>40,26; 47,73</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>37,29; 47,94</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>37,03; 43,25</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>42,35; 48,3</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>38,08; 45,2</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>37,78; 43,46</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>42,51; 47,36</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>38,75; 45,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>26,19%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>27,84%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>30,25%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>30,46%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>26,19%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>31,87%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>28,38%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>26,99%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>31,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>22,79; 30,68</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>24,64; 31,15</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>25,77; 35,2</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>27,72; 33,45</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>23,61; 28,97</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>28,28; 35,25</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>25,86; 30,87</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>25,13; 29,24</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>28,13; 33,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
